--- a/Marketing/ur.roomme.xlsx
+++ b/Marketing/ur.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>coopersuminski</t>
+          <t>alex__sullivann</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>urrecovery</t>
+          <t>_will.anderson_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avacado.scoot</t>
+          <t>katiechig</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>glen.ket</t>
+          <t>catespitz_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>karine.nguyen</t>
+          <t>coopersuminski</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fermoyaq</t>
+          <t>lillie_wendt</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>michele.g.carey</t>
+          <t>804.tiaaa</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>in.in.inn_</t>
+          <t>emmycobbb</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hopie3_4</t>
+          <t>devinryan23</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ariyaaa_d</t>
+          <t>lluper914</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>susan.mahoney24</t>
+          <t>sashaahanson</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaspergill2</t>
+          <t>heyrrk</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>amadi.higgins</t>
+          <t>nick_lewis5229</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>devnthaearth</t>
+          <t>najenna_8587</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>chrissykuykendall</t>
+          <t>grantk87</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hopiebrownn</t>
+          <t>natali.sabri</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jessie.jewel</t>
+          <t>amanda_autar</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>emspear3</t>
+          <t>katehemley</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>joppermannn</t>
+          <t>amelia.wirt</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>juliabandte</t>
+          <t>vivian.morrow</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mwest101</t>
+          <t>zzz10524</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>therbhayes</t>
+          <t>bslosman18</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_lydiataber</t>
+          <t>murraylinden</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>natali.sabri</t>
+          <t>char1012</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>alnic3042</t>
+          <t>tess.weatherhead</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nicolefernnandez</t>
+          <t>michaelsoph</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>phoebefrechette</t>
+          <t>somoslalis</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bennguy3n</t>
+          <t>tommykenny_</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>amhoskins</t>
+          <t>finny_g123</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ekroneberger_29</t>
+          <t>grif_n</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mandy.moore3</t>
+          <t>e.newberry16</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>christinagoldenn</t>
+          <t>gold.ariii</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>maddyslesinski</t>
+          <t>eddiepayan</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vivian.morrow</t>
+          <t>michaelm_426</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tillman_ball_</t>
+          <t>_ayah_k</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>deegarcias</t>
+          <t>tillman_ball_</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ronniezeidel</t>
+          <t>molly_scribner</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>obewls</t>
+          <t>izzyandru.s</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zzz10524</t>
+          <t>stevenmpisano</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>calvin.ciorba</t>
+          <t>dylancconway</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,407 +848,407 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gretchenklotz</t>
+          <t>charlottenofsinger_</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>destinee.lee_</t>
+          <t>kadenschiff</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ashleylocurto</t>
+          <t>clayvongrimes</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>abby.himmelstein</t>
+          <t>emmabeardsley_</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>oapunishill</t>
+          <t>em.mccauley</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>eric.reazor16</t>
+          <t>ac_doodle</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>remi.graff</t>
+          <t>sarahkwirth27</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>livpriorr</t>
+          <t>avabeninati21</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sarahkwirth27</t>
+          <t>graciegault_</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jennymacs</t>
+          <t>zach.garrettt</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>susanne_mb</t>
+          <t>williammarhold</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>micheleecollins</t>
+          <t>kittywayland</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>murraylinden</t>
+          <t>emily_zzq</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lilasabinetaylor</t>
+          <t>maddyslesinski</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ianmmckinney</t>
+          <t>andrew_kowal_21</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sofiamichalski</t>
+          <t>landonessig</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>meg.macauley</t>
+          <t>noracorreiro</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sally.harrington</t>
+          <t>catherine_jalbert</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lillie_wendt</t>
+          <t>toby_tate_</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>noorankhann</t>
+          <t>nicolekobalter</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>urichmond2025gapyear</t>
+          <t>mwest101</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>e.tcoleman20</t>
+          <t>pimcolleen</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>xinru.a</t>
+          <t>jenasce1</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_maddieshearer</t>
+          <t>ericharnisher</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>marisasnee</t>
+          <t>isabelgoodin</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>toby_tate_</t>
+          <t>alice.ghme</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nate.amaro</t>
+          <t>deps_ny</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_annelieseg</t>
+          <t>harrisontgood</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>alexis.morton</t>
+          <t>tarasheehan_13</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_maau_16</t>
+          <t>mollie_fenn16</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>earlhr</t>
+          <t>madisonlstory</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>j.wang326</t>
+          <t>tom_ern14</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ianmurphy_esa</t>
+          <t>lilybuerck</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dev___patel03</t>
+          <t>leo_muller2124</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>abbyyygreen</t>
+          <t>mia.avera</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ana_sadler</t>
+          <t>emmasochia</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>macross10</t>
+          <t>willrdburks</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>weber.morse</t>
+          <t>zack.ruighaver</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zachc_8</t>
+          <t>chasecristella</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p.nasty016</t>
+          <t>ianmurphy_esa</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lansing.michael</t>
+          <t>xinru.a</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mayacynkin</t>
+          <t>wslytrafford</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>katherinecoffin</t>
+          <t>jplambdin</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>urichmondalumni</t>
+          <t>giulifernandez_</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>arlenerand8</t>
+          <t>_drewdavenport</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>_eileen.dg_</t>
+          <t>e.tcoleman20</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nichejaydahh</t>
+          <t>courtneysheerin</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sammyyy_lc</t>
+          <t>sophiademerath</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ckione</t>
+          <t>dev___patel03</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>alexataylor31</t>
+          <t>jmrs22</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gabyyys_011</t>
+          <t>emwhammond</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>eatriceric</t>
+          <t>qrbnymlmhmd</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>_justin_younggg</t>
+          <t>hcc_0509</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>_will.anderson_</t>
+          <t>calvin.ciorba</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ava.frods</t>
+          <t>charlotteerosee</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>joycee.stern</t>
+          <t>livvypeckham16</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>cherald7</t>
+          <t>hannah.lydic</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>kevinrutowicz_11</t>
+          <t>jmzv32</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>molly_scribner</t>
+          <t>_tylermorales_</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mollykat.wise</t>
+          <t>dwallon_</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>jmrs22</t>
+          <t>juliamuniz.z</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>madisonlstory</t>
+          <t>eamon_lapalme</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>syd.rebekah</t>
+          <t>lianna.augusto</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_mgreenberg_</t>
+          <t>leeloo_ur</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>oligracee</t>
+          <t>jen.maldonado_</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>owen.m.sheehan</t>
+          <t>reecedorfman</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>jjessicooper</t>
+          <t>emilie.alpert</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_ajmazz</t>
+          <t>zoe.epsteinn</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>maxcharde</t>
+          <t>emeliehochwald</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>nick.m.2040</t>
+          <t>elizabethstahovich</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kellyangel1ni</t>
+          <t>whsam</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>trell.foster.9</t>
+          <t>annam.ccormack</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>wyatt.alt</t>
+          <t>shepseba</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>zoe.epsteinn</t>
+          <t>gabyyys_011</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>amber.ejo</t>
+          <t>suz.moo</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sarah.leafstrand</t>
+          <t>maddysml40</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>carolinekelley23</t>
+          <t>malavumthitta</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>alex__sullivann</t>
+          <t>ana_sadler</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>finny_g123</t>
+          <t>_johnpence</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>wrafi92</t>
+          <t>defender197one</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>riley.condron</t>
+          <t>dgortiz_</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>alex.grizzetti</t>
+          <t>caroline.shelley_</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>aaddisonlewis</t>
+          <t>nj_nashir</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>maggie.mcferran</t>
+          <t>tpand3</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>charlieshep22</t>
+          <t>danny_doran5</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>michaelm_426</t>
+          <t>alexgrelle12</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>alishawongg</t>
+          <t>rafisantomenna</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sarah.symons</t>
+          <t>sumaya_walid04</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>dep52404</t>
+          <t>drew3carlin</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>devinryan23</t>
+          <t>yarehimi_montufar</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>emmabeardsley_</t>
+          <t>penelopeherman_</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>justinliu._</t>
+          <t>urcapsinterns</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sunnybrown14</t>
+          <t>oliviakass_</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>janehmoon</t>
+          <t>ethanhan_21</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>avery.piantedosi</t>
+          <t>milo_michalczewski</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>amelie.daplyn</t>
+          <t>meg.macauley</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>petertbaumann</t>
+          <t>jasonlatina</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mbb.adorable</t>
+          <t>mills1229</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>emma.merer</t>
+          <t>jkms73</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>luluhettleman</t>
+          <t>spiders_care</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mia.hollekim</t>
+          <t>susan.mahoney24</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>raf.c03</t>
+          <t>rea.wadhwani</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ur_bollywood_jhatkas</t>
+          <t>hi_from_behind</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>thomas.naem</t>
+          <t>jordan_riedman</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>giulifernandez_</t>
+          <t>jaspergill2</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>littlewooperband</t>
+          <t>matty.z_</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>804.tiaaa</t>
+          <t>petertbaumann</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>maya.hvs</t>
+          <t>deliafoley</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>gradyzeidel</t>
+          <t>andy_herriott</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>theoj_7</t>
+          <t>trell.foster.9</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>alex_doell</t>
+          <t>destinee.lee_</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>suz.moo</t>
+          <t>lilliebianco</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>paula_carreno</t>
+          <t>stillerrocks</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lilystrauss7</t>
+          <t>emma.merer</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>noahkatz44</t>
+          <t>owen.m.sheehan</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ciaraa.macmullen</t>
+          <t>asheehan</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>offspringyoo</t>
+          <t>_smoore1</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>annam.ccormack</t>
+          <t>cgeraghty20</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>najenna_8587</t>
+          <t>annaelliottt_</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jordnjaffe</t>
+          <t>annabelle_x.z</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>nickhahnn</t>
+          <t>_sophiamarano_</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>meredith_098</t>
+          <t>annabelbuggy</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tom_ern14</t>
+          <t>joannaamada_</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ethanhan_21</t>
+          <t>bwixted3</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>johnpaulateh</t>
+          <t>sophieemansfield</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>michaelkclancy</t>
+          <t>nataliestuart_</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ddcorrato</t>
+          <t>lankimball</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>bengreenberg4</t>
+          <t>allisonholtzman</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>just.emm__</t>
+          <t>audreychen0817</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>justsoliday</t>
+          <t>hopie3_4</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>amanda_autar</t>
+          <t>lilysorensen</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>grace_pinkney</t>
+          <t>sehr.abdullah</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>milo_michalczewski</t>
+          <t>eliseduffy_</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ella.karcewski</t>
+          <t>katherinecoffin</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>jadagreenn</t>
+          <t>denicolozarch</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ju1iamills</t>
+          <t>kylegiardine</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>drewross_23</t>
+          <t>chase_hartley</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>amandafgreen</t>
+          <t>adengmalu</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>_sophiamarano_</t>
+          <t>christinagoldenn</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>alex_landry11</t>
+          <t>gmackeigan11</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>seanmonty_7</t>
+          <t>3b00d.122</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>danielsimes93</t>
+          <t>sans.basnyat</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>simmy_2503</t>
+          <t>emma.kinnie</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kbvikings</t>
+          <t>amhoskins</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>gia_deriso</t>
+          <t>sam.goldblat</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>andy_herriott</t>
+          <t>ryancarey58</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>sam.goldblat</t>
+          <t>seanmonty_7</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>josieshapira</t>
+          <t>alysonlihzis</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>katehemley</t>
+          <t>kw___violet</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sarah.ebinger</t>
+          <t>j.wang326</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>clayvongrimes</t>
+          <t>_dicaprio_02</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>colucci.connor</t>
+          <t>anna.nguyen26</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>jedstrober</t>
+          <t>allisonlibby_</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>m.taranov</t>
+          <t>_annelieseg</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>gloria_k.jpg</t>
+          <t>adarfour1</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>hallekaleb_</t>
+          <t>andrewepark</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>allyssaflanagan</t>
+          <t>804_.joseph</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>opssjulianaa</t>
+          <t>charlie.brosius</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>joseph_t_clark</t>
+          <t>hayes_mahoney</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>benmayes2014</t>
+          <t>allielovesmillie_</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>jessicaa.logann</t>
+          <t>theoj_7</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>puttu81</t>
+          <t>lansing.michael</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>saraleliva</t>
+          <t>andiedurkin</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>maddyoblenis</t>
+          <t>reeja.__.k</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jackdekorte</t>
+          <t>kristinolte</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ryancarey58</t>
+          <t>kellyangel1ni</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>hannahgrowny</t>
+          <t>braeden_herriott</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>marian._.25</t>
+          <t>_maddieshearer</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>loganrafferty_</t>
+          <t>michael_elko_3</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>22shea</t>
+          <t>nate.amaro</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ily._nowah</t>
+          <t>avacado.scoot</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>emmasochia</t>
+          <t>nowahxpretty</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>emilie.alpert</t>
+          <t>gretchenklotz</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>_tommy_madden</t>
+          <t>gregsheridan19</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>___ayah_k</t>
+          <t>luluhettleman</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>haydengrosso_</t>
+          <t>fermoyaq</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>lilmil_</t>
+          <t>cadencer04</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fizzwm</t>
+          <t>kbvikings</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>noah_fraas</t>
+          <t>_mgreenberg_</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>anniehamilton_</t>
+          <t>ava.frods</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>connor3kelly</t>
+          <t>noahkatz44</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>gigi.pascal</t>
+          <t>ashleylocurto</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>evapfeiffer_</t>
+          <t>uofrichmond2026</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>_dicaprio_02</t>
+          <t>urichmond</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>gold.ariii</t>
+          <t>kevinrutowicz_11</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,1710 +2708,10 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>katherinemstoss</t>
+          <t>ianmmckinney</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>grif_n</t>
-        </is>
-      </c>
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>christian._.figueroaa</t>
-        </is>
-      </c>
-      <c r="B230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>lyaarodriguez</t>
-        </is>
-      </c>
-      <c r="B231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>kristinolte</t>
-        </is>
-      </c>
-      <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>caroline.grace.d</t>
-        </is>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>gregsheridan19</t>
-        </is>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>michael_mgy</t>
-        </is>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>brettgoodman03</t>
-        </is>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>samchanenson</t>
-        </is>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>isaac.deane</t>
-        </is>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>royalnewyork</t>
-        </is>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>patrick.stapletonn</t>
-        </is>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>deliafoley</t>
-        </is>
-      </c>
-      <c r="B241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>jkms73</t>
-        </is>
-      </c>
-      <c r="B242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>avabeninati21</t>
-        </is>
-      </c>
-      <c r="B243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>natashatroike</t>
-        </is>
-      </c>
-      <c r="B244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>rea.wadhwani</t>
-        </is>
-      </c>
-      <c r="B245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>drew3carlin</t>
-        </is>
-      </c>
-      <c r="B246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>brooke_reif</t>
-        </is>
-      </c>
-      <c r="B247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>eliseduffy_</t>
-        </is>
-      </c>
-      <c r="B248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>leo_muller2124</t>
-        </is>
-      </c>
-      <c r="B249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>damien.liebov</t>
-        </is>
-      </c>
-      <c r="B250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>stevidugas</t>
-        </is>
-      </c>
-      <c r="B251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>eddiepayan</t>
-        </is>
-      </c>
-      <c r="B252" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>tradtke1</t>
-        </is>
-      </c>
-      <c r="B253" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>nowahxpretty</t>
-        </is>
-      </c>
-      <c r="B254" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>megsgreenberg</t>
-        </is>
-      </c>
-      <c r="B255" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>davis.wiley_</t>
-        </is>
-      </c>
-      <c r="B256" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>emma.kinnie</t>
-        </is>
-      </c>
-      <c r="B257" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>malavumthitta</t>
-        </is>
-      </c>
-      <c r="B258" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>btsuda15</t>
-        </is>
-      </c>
-      <c r="B259" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>rosaliehinke</t>
-        </is>
-      </c>
-      <c r="B260" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>kate.chasin</t>
-        </is>
-      </c>
-      <c r="B261" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>lm_donough</t>
-        </is>
-      </c>
-      <c r="B262" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>cadencer04</t>
-        </is>
-      </c>
-      <c r="B263" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>emmycobbb</t>
-        </is>
-      </c>
-      <c r="B264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>jplambdin</t>
-        </is>
-      </c>
-      <c r="B265" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>noracorreiro</t>
-        </is>
-      </c>
-      <c r="B266" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>franchescapearo</t>
-        </is>
-      </c>
-      <c r="B267" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>andrewepark</t>
-        </is>
-      </c>
-      <c r="B268" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>allisonlibby_</t>
-        </is>
-      </c>
-      <c r="B269" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>tess.weatherhead</t>
-        </is>
-      </c>
-      <c r="B270" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>isabelgoodin</t>
-        </is>
-      </c>
-      <c r="B271" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>_drewdavenport</t>
-        </is>
-      </c>
-      <c r="B272" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>williamcorcios</t>
-        </is>
-      </c>
-      <c r="B273" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>_declanfagan_</t>
-        </is>
-      </c>
-      <c r="B274" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>carolinej0091</t>
-        </is>
-      </c>
-      <c r="B275" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>sans.basnyat</t>
-        </is>
-      </c>
-      <c r="B276" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>alexandra.stellwagen</t>
-        </is>
-      </c>
-      <c r="B277" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>_johnpence</t>
-        </is>
-      </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>nataliestuart_</t>
-        </is>
-      </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>charisbaumann</t>
-        </is>
-      </c>
-      <c r="B280" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>emmaaclancy</t>
-        </is>
-      </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>hawkis_char</t>
-        </is>
-      </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>nick_lewis5229</t>
-        </is>
-      </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>j.healey_19</t>
-        </is>
-      </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>__connor.m__</t>
-        </is>
-      </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>ana_carrot.co</t>
-        </is>
-      </c>
-      <c r="B286" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>pefinz</t>
-        </is>
-      </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>brabbit.0</t>
-        </is>
-      </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>lilysorensen</t>
-        </is>
-      </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>justiceseymour73</t>
-        </is>
-      </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>cmcriares</t>
-        </is>
-      </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>chase_topolski</t>
-        </is>
-      </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>jmzv32</t>
-        </is>
-      </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>jackson_voelkel</t>
-        </is>
-      </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>kath.t.s_</t>
-        </is>
-      </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>alysonlihzis</t>
-        </is>
-      </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>andrew_kowal_21</t>
-        </is>
-      </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>alexgrelle12</t>
-        </is>
-      </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>colebreen13</t>
-        </is>
-      </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>chaselempner</t>
-        </is>
-      </c>
-      <c r="B300" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>mitch80439</t>
-        </is>
-      </c>
-      <c r="B301" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>_lunalovesmillie_</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>nj_nashir</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>i_has_hacks</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>dalinsao03</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>julia.reece_</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>catherine_jalbert</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>josiemastandrea</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>pimcolleen</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>jason_gujiangran</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>cgeraghty20</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>jasonf1219</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>kadenschiff</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>cynthiazzzz9</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>amanda_reese</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>simonecarillo1</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>liz_milliot</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>meggynaggy</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>sadienolan_</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>dannypratley</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>williammarhold</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>spiders_care</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>matt_lynch15</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>stella.smig</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>_lizzienovak</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>liz.bradfordd</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>coopergroat</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>mg_kim10</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>adarfour1</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>alifrazierr</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>willrdburks</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>lilajackson11</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>chris.erickson_</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>danny_doran5</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>maternal_unit</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>alex__fors</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>abbysams0n</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>madelyn.panebianco</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>asheehan</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>jackhoha</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>connor_lelievre</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>graciegault_</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>charlottedboss</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>carly.rougier</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>amarathohan</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>sophiademerath</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>ac_doodle</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>bengrace.19</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>leagnoy</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>alliemock</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>izzyandru.s</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>isabella.c464</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>elecktrakute</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>izzy.sabs</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>quingegwich</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>hi_from_behind</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>lilliebianco</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>tessjablonowskii</t>
-        </is>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>_tylermorales_</t>
-        </is>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>noah_and_millie0319</t>
-        </is>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>amelia.wirt</t>
-        </is>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>rafisantomenna</t>
-        </is>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>braeden_herriott</t>
-        </is>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>brendanc515</t>
-        </is>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>libbyfmckinney15</t>
-        </is>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>carolinantonio13</t>
-        </is>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>urichmond</t>
-        </is>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>eamon_lapalme</t>
-        </is>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>leeloo_ur</t>
-        </is>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>a.boh</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>darfmi</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>john.angelides</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>jaslitiny</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>alex.unruh</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>michael_elko_3</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>dwallon_</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>jordan_riedman</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>reecedorfman</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>uofrichmond2026</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>jimmy.conley4</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>bikes.em.hawkins</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>maddysml40</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>lankimball</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>zion8x</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>amanda_yahan</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>lilybuerck</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>lyddoherty</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>shelby_m_richards</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>cateware</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>meganstute</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>hannah.lydic</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>sydmansfieldd</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>kallie.whit</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>noah.xoxo.love</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>augiebuerger</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>da.ko.boi</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>804_.joseph</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>elissakanderson</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/ur.roomme.xlsx
+++ b/Marketing/ur.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -448,407 +436,407 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alex__sullivann</t>
+          <t>wslytrafford</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>_will.anderson_</t>
+          <t>lyaarodriguez</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>katiechig</t>
+          <t>ericharnisher</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>catespitz_</t>
+          <t>michaelm_426</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>coopersuminski</t>
+          <t>_lydiataber</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lillie_wendt</t>
+          <t>rob.linden15</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>804.tiaaa</t>
+          <t>jo.b.swell</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>emmycobbb</t>
+          <t>_smoore1</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>devinryan23</t>
+          <t>noah_fraas</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lluper914</t>
+          <t>maya.hvs</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sashaahanson</t>
+          <t>tpand3</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>heyrrk</t>
+          <t>katherinecoffin</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nick_lewis5229</t>
+          <t>grif_n</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>najenna_8587</t>
+          <t>jgrillo_garet_117</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>grantk87</t>
+          <t>katehemley</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>natali.sabri</t>
+          <t>e.tcoleman20</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>amanda_autar</t>
+          <t>emwhammond</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>katehemley</t>
+          <t>defender197one</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>amelia.wirt</t>
+          <t>carolinej0091</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vivian.morrow</t>
+          <t>alice.ghme</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zzz10524</t>
+          <t>sarah.symons</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bslosman18</t>
+          <t>heyrrk</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>murraylinden</t>
+          <t>willrdburks</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>char1012</t>
+          <t>connor3kelly</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tess.weatherhead</t>
+          <t>sumaya_walid04</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>michaelsoph</t>
+          <t>bwixted3</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>somoslalis</t>
+          <t>lizzzieford</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tommykenny_</t>
+          <t>karine.nguyen</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>finny_g123</t>
+          <t>cbamberger5</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>grif_n</t>
+          <t>gia_deriso</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>e.newberry16</t>
+          <t>gavin_clausen</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gold.ariii</t>
+          <t>meggynaggy</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>eddiepayan</t>
+          <t>_eileen.dg_</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>michaelm_426</t>
+          <t>annabelle_x.z</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_ayah_k</t>
+          <t>williamcorcios</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tillman_ball_</t>
+          <t>kellyangel1ni</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>molly_scribner</t>
+          <t>jaspergill2</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>izzyandru.s</t>
+          <t>bikes.em.hawkins</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>stevenmpisano</t>
+          <t>sadienolan_</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dylancconway</t>
+          <t>asheehan</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>charlottenofsinger_</t>
+          <t>jplambdin</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +846,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>kadenschiff</t>
+          <t>alexis.morton</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +856,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>clayvongrimes</t>
+          <t>abbyyygreen</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +866,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>emmabeardsley_</t>
+          <t>malavumthitta</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>em.mccauley</t>
+          <t>maggie.mcferran</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +886,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ac_doodle</t>
+          <t>zachc_8</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +896,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sarahkwirth27</t>
+          <t>kbvikings</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +906,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>avabeninati21</t>
+          <t>emma.merer</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>graciegault_</t>
+          <t>dianehammermills</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>zach.garrettt</t>
+          <t>nicolefernnandez</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +936,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>williammarhold</t>
+          <t>ferdiaaaz2.0</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +946,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kittywayland</t>
+          <t>jsheridan_7</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +956,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>emily_zzq</t>
+          <t>matt.dalicandro</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +966,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>maddyslesinski</t>
+          <t>caroline.weldonn</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +976,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>andrew_kowal_21</t>
+          <t>isooobellll</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +986,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>landonessig</t>
+          <t>_ajmazz</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +996,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>noracorreiro</t>
+          <t>fermoyaq</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1006,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>catherine_jalbert</t>
+          <t>kylegiardine</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1016,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>toby_tate_</t>
+          <t>nichejaydahh</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1026,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nicolekobalter</t>
+          <t>jmrs22</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1036,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mwest101</t>
+          <t>sophieegood</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1046,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>pimcolleen</t>
+          <t>matty.z_</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1056,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jenasce1</t>
+          <t>hayes_mahoney</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1066,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ericharnisher</t>
+          <t>parizad_i</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1076,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>isabelgoodin</t>
+          <t>nj_nashir</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1086,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>alice.ghme</t>
+          <t>trell.foster.9</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1096,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>deps_ny</t>
+          <t>just.emm__</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1106,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>harrisontgood</t>
+          <t>ianmurphy_esa</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1116,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tarasheehan_13</t>
+          <t>ana_carrot.co</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1126,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mollie_fenn16</t>
+          <t>lyddoherty</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1136,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>madisonlstory</t>
+          <t>charisbaumann</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1146,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>tom_ern14</t>
+          <t>susan.mahoney24</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1156,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lilybuerck</t>
+          <t>joseph_t_clark</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1166,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>leo_muller2124</t>
+          <t>_tommy_madden</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1176,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mia.avera</t>
+          <t>sarah.leafstrand</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1186,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>emmasochia</t>
+          <t>stell_avvuzj</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1196,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>willrdburks</t>
+          <t>meredith_098</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1206,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>zack.ruighaver</t>
+          <t>lillie_wendt</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1216,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>chasecristella</t>
+          <t>kristinolte</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1226,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ianmurphy_esa</t>
+          <t>zach.garrettt</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1236,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>xinru.a</t>
+          <t>fwetmore3</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1246,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>wslytrafford</t>
+          <t>xinru.a</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1256,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jplambdin</t>
+          <t>marian._.25</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1266,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>giulifernandez_</t>
+          <t>julia.reece_</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1276,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>_drewdavenport</t>
+          <t>mitch80439</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1286,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>e.tcoleman20</t>
+          <t>yourgal_kenzii</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1296,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>courtneysheerin</t>
+          <t>colin_bynum</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1306,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sophiademerath</t>
+          <t>oapunishill</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1316,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dev___patel03</t>
+          <t>jadagreenn</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1326,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>jmrs22</t>
+          <t>liz.bradfordd</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1336,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>emwhammond</t>
+          <t>cherald7</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1346,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>qrbnymlmhmd</t>
+          <t>jessie.jewel</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1356,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hcc_0509</t>
+          <t>maddyoblenis</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1366,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>calvin.ciorba</t>
+          <t>sophiademerath</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1376,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>charlotteerosee</t>
+          <t>sydmansfieldd</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1386,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>livvypeckham16</t>
+          <t>nowahxpretty</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1396,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hannah.lydic</t>
+          <t>e.newberry16</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1406,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>jmzv32</t>
+          <t>toby_tate_</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1416,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>_tylermorales_</t>
+          <t>jackhoha</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1426,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dwallon_</t>
+          <t>izzyandru.s</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1436,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>juliamuniz.z</t>
+          <t>landonessig</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1446,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>eamon_lapalme</t>
+          <t>livvypeckham16</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1456,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lianna.augusto</t>
+          <t>tessjablonowskii</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1466,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>leeloo_ur</t>
+          <t>christian._.figueroaa</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1476,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jen.maldonado_</t>
+          <t>megsgreenberg</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1486,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reecedorfman</t>
+          <t>804_.joseph</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1496,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>emilie.alpert</t>
+          <t>glen.ket</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1506,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>zoe.epsteinn</t>
+          <t>damien.liebov</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1516,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>emeliehochwald</t>
+          <t>cclaruu_</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1526,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>elizabethstahovich</t>
+          <t>alex_landry11</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1536,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>whsam</t>
+          <t>sarahkwirth27</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1546,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>annam.ccormack</t>
+          <t>pefinz</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1556,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>shepseba</t>
+          <t>alex__fors</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1566,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>gabyyys_011</t>
+          <t>hawkis_char</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1576,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>suz.moo</t>
+          <t>kate.chasin</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1586,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>maddysml40</t>
+          <t>allyckeating</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1596,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>malavumthitta</t>
+          <t>ariyaaa_d</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1606,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ana_sadler</t>
+          <t>quinnbogue</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1616,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_johnpence</t>
+          <t>vivian.morrow</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1626,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>defender197one</t>
+          <t>marisasnee</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1636,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>dgortiz_</t>
+          <t>jackson_voelkel</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1646,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>caroline.shelley_</t>
+          <t>__connor.m__</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1656,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>nj_nashir</t>
+          <t>mandy.moore3</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1666,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>tpand3</t>
+          <t>andiedurkin</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1676,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>danny_doran5</t>
+          <t>shelby_m_richards</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1686,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>alexgrelle12</t>
+          <t>gradyzeidel</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1696,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>siobhanstack</t>
+          <t>sammyyy_lc</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1706,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>rafisantomenna</t>
+          <t>charlottedboss</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1716,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sumaya_walid04</t>
+          <t>earlhr</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1726,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>drew3carlin</t>
+          <t>lulamangosteen</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1736,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>yarehimi_montufar</t>
+          <t>emmasochia</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1746,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>penelopeherman_</t>
+          <t>weber.morse</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1756,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>urcapsinterns</t>
+          <t>_annelieseg</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1766,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>oliviakass_</t>
+          <t>sam.goldblat</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1776,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ethanhan_21</t>
+          <t>mayacynkin</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1786,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>milo_michalczewski</t>
+          <t>emmycobbb</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1796,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>meg.macauley</t>
+          <t>_will.anderson_</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1806,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jasonlatina</t>
+          <t>laurenrowen</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1816,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mills1229</t>
+          <t>lucillemhancock</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1826,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jkms73</t>
+          <t>brendanc515</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1836,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>spiders_care</t>
+          <t>abby.himmelstein</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1846,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>susan.mahoney24</t>
+          <t>sehr.abdullah</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1856,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rea.wadhwani</t>
+          <t>meganstute</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1866,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>hi_from_behind</t>
+          <t>aaddisonlewis</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1876,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jordan_riedman</t>
+          <t>maxcharde</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1886,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>jaspergill2</t>
+          <t>adarfour1</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1896,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>matty.z_</t>
+          <t>_johnpence</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1906,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>petertbaumann</t>
+          <t>cmcriares</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1916,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>deliafoley</t>
+          <t>cadencer04</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1926,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>andy_herriott</t>
+          <t>andrew_kowal_21</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1936,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>trell.foster.9</t>
+          <t>dgortiz_</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1946,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>destinee.lee_</t>
+          <t>avery.piantedosi</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1956,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lilliebianco</t>
+          <t>allisonlibby_</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1966,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>stillerrocks</t>
+          <t>opssjulianaa</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1976,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>emma.merer</t>
+          <t>gabyyys_011</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1986,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>owen.m.sheehan</t>
+          <t>zoe.epsteinn</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +1996,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>asheehan</t>
+          <t>jason_furnari</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2006,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>_smoore1</t>
+          <t>chasecristella</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2016,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>cgeraghty20</t>
+          <t>ali.qadr.k</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2026,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>annaelliottt_</t>
+          <t>paula_carreno</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2036,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>annabelle_x.z</t>
+          <t>stevenmpisano</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2046,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_sophiamarano_</t>
+          <t>cgeraghty20</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2056,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>annabelbuggy</t>
+          <t>molly_scribner</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2066,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>joannaamada_</t>
+          <t>ianmmckinney</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2076,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>bwixted3</t>
+          <t>alex.unruh</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2086,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sophieemansfield</t>
+          <t>jd_4_</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2096,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>nataliestuart_</t>
+          <t>kath.t.s_</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2106,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>lankimball</t>
+          <t>siobhanstack</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2116,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>allisonholtzman</t>
+          <t>rbcruz73</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2126,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>audreychen0817</t>
+          <t>maddyslesinski</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2136,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hopie3_4</t>
+          <t>charlieshep22</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2146,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lilysorensen</t>
+          <t>qrbnymlmhmd</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2156,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sehr.abdullah</t>
+          <t>ur_bollywood_jhatkas</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2166,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>eliseduffy_</t>
+          <t>_dicaprio_02</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>katherinecoffin</t>
+          <t>alysonlihzis</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2186,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>denicolozarch</t>
+          <t>_justin_younggg</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2196,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kylegiardine</t>
+          <t>dep52404</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2206,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>chase_hartley</t>
+          <t>cynthiazzzz9</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2216,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>adengmalu</t>
+          <t>coopersuminski</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2226,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>christinagoldenn</t>
+          <t>nicolekobalter</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2236,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>gmackeigan11</t>
+          <t>ciaraa.macmullen</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2246,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3b00d.122</t>
+          <t>simmy_2503</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2256,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sans.basnyat</t>
+          <t>uofrichmond2026</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2266,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>emma.kinnie</t>
+          <t>theoj_7</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>amhoskins</t>
+          <t>dev___patel03</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2286,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>sam.goldblat</t>
+          <t>amanda_reese</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2296,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ryancarey58</t>
+          <t>cateware</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2306,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>seanmonty_7</t>
+          <t>offspringyoo</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2316,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alysonlihzis</t>
+          <t>catherine_jalbert</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2326,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>kw___violet</t>
+          <t>jennymacs</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2336,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>j.wang326</t>
+          <t>allygillespiee</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2346,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_dicaprio_02</t>
+          <t>joycee.stern</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2356,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>anna.nguyen26</t>
+          <t>luker.2422</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2366,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>allisonlibby_</t>
+          <t>amelia.wirt</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2376,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>_annelieseg</t>
+          <t>oliviakass_</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2386,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>adarfour1</t>
+          <t>yarehimi_montufar</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2396,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>andrewepark</t>
+          <t>reecedorfman</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2406,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>804_.joseph</t>
+          <t>allyryan__</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2416,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>charlie.brosius</t>
+          <t>jordan_riedman</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2426,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>hayes_mahoney</t>
+          <t>clayvongrimes</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2436,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>allielovesmillie_</t>
+          <t>jason_gujiangran</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2446,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>theoj_7</t>
+          <t>eddiepayan</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2456,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>lansing.michael</t>
+          <t>zzz10524</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2466,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>andiedurkin</t>
+          <t>_sophiamarano_</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2476,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>reeja.__.k</t>
+          <t>annaelliottt_</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2486,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>kristinolte</t>
+          <t>joppermannn</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2496,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kellyangel1ni</t>
+          <t>drewross_23</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2506,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>braeden_herriott</t>
+          <t>veichinger</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2516,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>_maddieshearer</t>
+          <t>madelyncurtis7</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2526,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>michael_elko_3</t>
+          <t>eamon_lapalme</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2536,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>nate.amaro</t>
+          <t>elecktrakute</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2546,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>avacado.scoot</t>
+          <t>emmaaclancy</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2556,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>nowahxpretty</t>
+          <t>carly.rougier</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2566,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>gretchenklotz</t>
+          <t>patricklumelleau</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2576,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>gregsheridan19</t>
+          <t>_lunalovesmillie_</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2586,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>luluhettleman</t>
+          <t>tom_ern14</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2596,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>fermoyaq</t>
+          <t>juliastanchina</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2606,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>cadencer04</t>
+          <t>lissette_.tenesaca</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2616,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kbvikings</t>
+          <t>thomas.naem</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2626,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_mgreenberg_</t>
+          <t>kevinrutowicz_11</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2636,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ava.frods</t>
+          <t>denicolozarch</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2646,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>noahkatz44</t>
+          <t>caroline.grace.d</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2656,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ashleylocurto</t>
+          <t>kw___violet</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2666,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>uofrichmond2026</t>
+          <t>murraylinden</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2676,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>urichmond</t>
+          <t>allielovesmillie_</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2686,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>kevinrutowicz_11</t>
+          <t>noahkatz44</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,10 +2696,140 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ianmmckinney</t>
+          <t>mia.hollekim</t>
         </is>
       </c>
       <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>charlottenofsinger_</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>lluper914</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>lesleynoer</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>davis.wiley_</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>nataliestuart_</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>sigrunevakristins</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>izzy.sabs</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ckione</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>tara.ae.k</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>somoslalis</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>gracecristini</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>coopergroat</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>urcapsinterns</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/ur.roomme.xlsx
+++ b/Marketing/ur.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -436,1307 +448,1307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wslytrafford</t>
+          <t>_justin_younggg</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lyaarodriguez</t>
+          <t>ella.karcewski</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ericharnisher</t>
+          <t>jordan_riedman</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>michaelm_426</t>
+          <t>nicolekobalter</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>_lydiataber</t>
+          <t>amelia.wirt</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rob.linden15</t>
+          <t>stevenmpisano</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jo.b.swell</t>
+          <t>noracorreiro</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_smoore1</t>
+          <t>3b00d.122</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>noah_fraas</t>
+          <t>sarah.ebinger</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maya.hvs</t>
+          <t>mwest101</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tpand3</t>
+          <t>sophieegood</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>katherinecoffin</t>
+          <t>tatiakin</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>grif_n</t>
+          <t>mia.avera</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jgrillo_garet_117</t>
+          <t>zion8x</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>katehemley</t>
+          <t>cgeraghty20</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>e.tcoleman20</t>
+          <t>shelbyoak</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>emwhammond</t>
+          <t>zachc_8</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>defender197one</t>
+          <t>syd.rebekah</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>carolinej0091</t>
+          <t>sans.basnyat</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>alice.ghme</t>
+          <t>maddysml40</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sarah.symons</t>
+          <t>_ajmazz</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>heyrrk</t>
+          <t>nshelby10</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>willrdburks</t>
+          <t>chase_topolski</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>connor3kelly</t>
+          <t>nichejaydahh</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sumaya_walid04</t>
+          <t>giulifernandez_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bwixted3</t>
+          <t>joseph_t_clark</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lizzzieford</t>
+          <t>lyddoherty</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>karine.nguyen</t>
+          <t>annie_sheehan064</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cbamberger5</t>
+          <t>allyssaflanagan</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>gia_deriso</t>
+          <t>maya.hvs</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gavin_clausen</t>
+          <t>urrecovery</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>meggynaggy</t>
+          <t>aoupess</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>_eileen.dg_</t>
+          <t>ritikarelwani</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>annabelle_x.z</t>
+          <t>isaac.deane</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>williamcorcios</t>
+          <t>tom_ern14</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kellyangel1ni</t>
+          <t>alexgrelle12</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jaspergill2</t>
+          <t>kadenschiff</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bikes.em.hawkins</t>
+          <t>michaelkclancy</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sadienolan_</t>
+          <t>andy_herriott</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>asheehan</t>
+          <t>bwixted3</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>jplambdin</t>
+          <t>804.tiaaa</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alexis.morton</t>
+          <t>finny_g123</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>abbyyygreen</t>
+          <t>dwallon_</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>malavumthitta</t>
+          <t>milo_michalczewski</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>maggie.mcferran</t>
+          <t>katevilloresi</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zachc_8</t>
+          <t>elissakanderson</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kbvikings</t>
+          <t>charlotteerosee</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>emma.merer</t>
+          <t>heyrrk</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dianehammermills</t>
+          <t>avabeninati21</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nicolefernnandez</t>
+          <t>dgortiz_</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ferdiaaaz2.0</t>
+          <t>chaselempner</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jsheridan_7</t>
+          <t>jmzv32</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>matt.dalicandro</t>
+          <t>benmayes2014</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>caroline.weldonn</t>
+          <t>meg.macauley</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>isooobellll</t>
+          <t>connor_lelievre</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_ajmazz</t>
+          <t>kate.chasin</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fermoyaq</t>
+          <t>gregsheridan19</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kylegiardine</t>
+          <t>penelopeherman_</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nichejaydahh</t>
+          <t>sofiamichalski</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>jmrs22</t>
+          <t>jd_4_</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sophieegood</t>
+          <t>wrafi92</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>matty.z_</t>
+          <t>allisonlibby_</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hayes_mahoney</t>
+          <t>dannypratley</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>parizad_i</t>
+          <t>siobhanstack</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nj_nashir</t>
+          <t>mitch80439</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>trell.foster.9</t>
+          <t>oligracee</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>just.emm__</t>
+          <t>lilajackson11</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ianmurphy_esa</t>
+          <t>sbeat24</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ana_carrot.co</t>
+          <t>nataliestuart_</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lyddoherty</t>
+          <t>anikad31</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>charisbaumann</t>
+          <t>josieshapira</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>susan.mahoney24</t>
+          <t>mg_kim10</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>joseph_t_clark</t>
+          <t>maxcharde</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>_tommy_madden</t>
+          <t>ava.frods</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sarah.leafstrand</t>
+          <t>annaelliottt_</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>stell_avvuzj</t>
+          <t>alliemock</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>meredith_098</t>
+          <t>remi.graff</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lillie_wendt</t>
+          <t>braeden_herriott</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>kristinolte</t>
+          <t>alex_landry11</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zach.garrettt</t>
+          <t>seanmonty_7</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>fwetmore3</t>
+          <t>ana_sadler</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>xinru.a</t>
+          <t>abby.himmelstein</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>marian._.25</t>
+          <t>michele.g.carey</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>julia.reece_</t>
+          <t>puttu81</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mitch80439</t>
+          <t>sigrunevakristins</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>yourgal_kenzii</t>
+          <t>kw___violet</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>colin_bynum</t>
+          <t>natali.sabri</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>oapunishill</t>
+          <t>cmcriares</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jadagreenn</t>
+          <t>calvin.ciorba</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>liz.bradfordd</t>
+          <t>landonessig</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cherald7</t>
+          <t>elecktrakute</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jessie.jewel</t>
+          <t>coopersuminski</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>maddyoblenis</t>
+          <t>amanda_reese</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sophiademerath</t>
+          <t>quingegwich</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sydmansfieldd</t>
+          <t>garrettyou_g</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>nowahxpretty</t>
+          <t>_smoore1</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>e.newberry16</t>
+          <t>amanda_yahan</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>toby_tate_</t>
+          <t>ana_carrot.co</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>jackhoha</t>
+          <t>rosaliehinke</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>izzyandru.s</t>
+          <t>hayes_mahoney</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>landonessig</t>
+          <t>ethanhan_21</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>livvypeckham16</t>
+          <t>amarathohan</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>tessjablonowskii</t>
+          <t>littlewooperband</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>christian._.figueroaa</t>
+          <t>011kem</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>megsgreenberg</t>
+          <t>denicolozarch</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>804_.joseph</t>
+          <t>megsgreenberg</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>glen.ket</t>
+          <t>grace_pinkney</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>damien.liebov</t>
+          <t>lluper914</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cclaruu_</t>
+          <t>drewross_23</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>alex_landry11</t>
+          <t>lankimball</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sarahkwirth27</t>
+          <t>spiders_care</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>pefinz</t>
+          <t>sihamniori</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>alex__fors</t>
+          <t>char1012</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>hawkis_char</t>
+          <t>dylancconway</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>kate.chasin</t>
+          <t>amhoskins</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>allyckeating</t>
+          <t>fizzwm</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ariyaaa_d</t>
+          <t>p.nasty016</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>quinnbogue</t>
+          <t>matt_lynch15</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vivian.morrow</t>
+          <t>zack.ruighaver</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>marisasnee</t>
+          <t>reeja.__.k</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>jackson_voelkel</t>
+          <t>tara.ae.k</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>__connor.m__</t>
+          <t>lillie_wendt</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mandy.moore3</t>
+          <t>beccaanelson</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>andiedurkin</t>
+          <t>pimcolleen</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>shelby_m_richards</t>
+          <t>char_wight</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>gradyzeidel</t>
+          <t>michael_elko_3</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sammyyy_lc</t>
+          <t>emmabeardsley_</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>charlottedboss</t>
+          <t>jessie.jewel</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>earlhr</t>
+          <t>avery.piantedosi</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lulamangosteen</t>
+          <t>thomssss26</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>emmasochia</t>
+          <t>michaelsoph</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1746,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>weber.morse</t>
+          <t>user2048294929482</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1756,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>_annelieseg</t>
+          <t>micheleecollins</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1766,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sam.goldblat</t>
+          <t>lansing.michael</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1776,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>mayacynkin</t>
+          <t>katherinecoffin</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1786,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>emmycobbb</t>
+          <t>b._rabbit.0</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1796,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>_will.anderson_</t>
+          <t>lizzzieford</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1806,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>laurenrowen</t>
+          <t>tess.weatherhead</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1816,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lucillemhancock</t>
+          <t>jaspergill2</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1826,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>brendanc515</t>
+          <t>pefinz</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1836,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>abby.himmelstein</t>
+          <t>emma.merer</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1846,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>sehr.abdullah</t>
+          <t>lilystrauss7</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1856,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>meganstute</t>
+          <t>jakelevy916</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1866,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>aaddisonlewis</t>
+          <t>christian._.figueroaa</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1876,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>maxcharde</t>
+          <t>luker.2422</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1886,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>adarfour1</t>
+          <t>mariona.19</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1896,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_johnpence</t>
+          <t>tillman_ball_</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1906,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>cmcriares</t>
+          <t>najenna_8587</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1916,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cadencer04</t>
+          <t>riley.condron</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1926,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>andrew_kowal_21</t>
+          <t>williammarhold</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1936,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dgortiz_</t>
+          <t>zoepruthi_</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1946,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>avery.piantedosi</t>
+          <t>julia.reece_</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1956,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>allisonlibby_</t>
+          <t>kallie.whit</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1966,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>opssjulianaa</t>
+          <t>_ayah_k</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1976,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>gabyyys_011</t>
+          <t>brettgoodman03</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1986,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>zoe.epsteinn</t>
+          <t>paula_carreno</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -1996,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jason_furnari</t>
+          <t>graciegault_</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2006,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>chasecristella</t>
+          <t>sehr.abdullah</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2016,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ali.qadr.k</t>
+          <t>lila_casati</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2026,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>paula_carreno</t>
+          <t>lilysorensen</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2036,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>stevenmpisano</t>
+          <t>emily_zzq</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2046,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cgeraghty20</t>
+          <t>franchescapearo</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2056,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>molly_scribner</t>
+          <t>isabella.c464</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2066,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ianmmckinney</t>
+          <t>harrisontgood</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2076,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>alex.unruh</t>
+          <t>ariyaaa_d</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2086,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jd_4_</t>
+          <t>katehemley</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2096,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>kath.t.s_</t>
+          <t>zzz10524</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2106,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>siobhanstack</t>
+          <t>macross10</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2116,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>rbcruz73</t>
+          <t>gold.ariii</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2126,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>maddyslesinski</t>
+          <t>mills1229</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2136,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>charlieshep22</t>
+          <t>_maau_16</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2146,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>qrbnymlmhmd</t>
+          <t>_lunalovesmillie_</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2156,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ur_bollywood_jhatkas</t>
+          <t>lilasabinetaylor</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2166,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_dicaprio_02</t>
+          <t>susanne_mb</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2176,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alysonlihzis</t>
+          <t>_will.anderson_</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2186,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_justin_younggg</t>
+          <t>m.taranov</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2196,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>dep52404</t>
+          <t>billiegrimshaw10</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2206,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>cynthiazzzz9</t>
+          <t>_annelieseg</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2216,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>coopersuminski</t>
+          <t>gmackeigan11</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2226,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>nicolekobalter</t>
+          <t>leo_muller2124</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2236,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ciaraa.macmullen</t>
+          <t>jjessicooper</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2246,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>simmy_2503</t>
+          <t>eric.reazor16</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2256,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>uofrichmond2026</t>
+          <t>_declanfagan_</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2266,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>theoj_7</t>
+          <t>cherald7</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2276,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>dev___patel03</t>
+          <t>whsam</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2286,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>amanda_reese</t>
+          <t>gavin_clausen</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2296,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>cateware</t>
+          <t>geerexed</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2306,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>offspringyoo</t>
+          <t>_maddieshearer</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2316,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>catherine_jalbert</t>
+          <t>charlottenofsinger_</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2326,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>jennymacs</t>
+          <t>emmycobbb</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2336,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>allygillespiee</t>
+          <t>baxmellone</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2346,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>joycee.stern</t>
+          <t>michael_mgy</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2356,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>luker.2422</t>
+          <t>_mgreenberg_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2366,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>amelia.wirt</t>
+          <t>chickentenz</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2376,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>oliviakass_</t>
+          <t>carolinej0091</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2386,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>yarehimi_montufar</t>
+          <t>amber.ejo</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2396,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>reecedorfman</t>
+          <t>the_sufu_hotties</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2406,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>allyryan__</t>
+          <t>kittywayland</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2416,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>jordan_riedman</t>
+          <t>jordnjaffe</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2426,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>clayvongrimes</t>
+          <t>jedstrober</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2436,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>jason_gujiangran</t>
+          <t>tpand3</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2446,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>eddiepayan</t>
+          <t>libbyfmckinney15</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2456,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>zzz10524</t>
+          <t>katiechig</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2466,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>_sophiamarano_</t>
+          <t>eric_skyline</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2476,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>annaelliottt_</t>
+          <t>lilliebianco</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2486,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>joppermannn</t>
+          <t>ericharnisher</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2496,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>drewross_23</t>
+          <t>marisasnee</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2506,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>veichinger</t>
+          <t>stell_avvuzj</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2516,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>madelyncurtis7</t>
+          <t>jgrillo_garet_118</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2526,310 +2538,10 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>eamon_lapalme</t>
+          <t>willrdburks</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>elecktrakute</t>
-        </is>
-      </c>
-      <c r="B212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>emmaaclancy</t>
-        </is>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>carly.rougier</t>
-        </is>
-      </c>
-      <c r="B214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>patricklumelleau</t>
-        </is>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>_lunalovesmillie_</t>
-        </is>
-      </c>
-      <c r="B216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>tom_ern14</t>
-        </is>
-      </c>
-      <c r="B217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>juliastanchina</t>
-        </is>
-      </c>
-      <c r="B218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>lissette_.tenesaca</t>
-        </is>
-      </c>
-      <c r="B219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>thomas.naem</t>
-        </is>
-      </c>
-      <c r="B220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>kevinrutowicz_11</t>
-        </is>
-      </c>
-      <c r="B221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>denicolozarch</t>
-        </is>
-      </c>
-      <c r="B222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>caroline.grace.d</t>
-        </is>
-      </c>
-      <c r="B223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>kw___violet</t>
-        </is>
-      </c>
-      <c r="B224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>murraylinden</t>
-        </is>
-      </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>allielovesmillie_</t>
-        </is>
-      </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>noahkatz44</t>
-        </is>
-      </c>
-      <c r="B227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>mia.hollekim</t>
-        </is>
-      </c>
-      <c r="B228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>charlottenofsinger_</t>
-        </is>
-      </c>
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>lluper914</t>
-        </is>
-      </c>
-      <c r="B230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>lesleynoer</t>
-        </is>
-      </c>
-      <c r="B231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>davis.wiley_</t>
-        </is>
-      </c>
-      <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>nataliestuart_</t>
-        </is>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>sigrunevakristins</t>
-        </is>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>izzy.sabs</t>
-        </is>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>ckione</t>
-        </is>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>tara.ae.k</t>
-        </is>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>somoslalis</t>
-        </is>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>gracecristini</t>
-        </is>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>coopergroat</t>
-        </is>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>urcapsinterns</t>
-        </is>
-      </c>
-      <c r="B241" t="b">
         <v>0</v>
       </c>
     </row>
